--- a/Закупки-Спецификация.xlsx
+++ b/Закупки-Спецификация.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Purchases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871F431E-08C6-4028-B576-6071F791669F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Инструкция" sheetId="1" r:id="rId4"/>
-    <sheet name="Параметры" sheetId="2" r:id="rId5"/>
+    <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
+    <sheet name="Параметры" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Код робота</t>
   </si>
@@ -33,7 +42,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="8"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
@@ -68,9 +77,6 @@
     <t>Инструкция по заполнению конфигурационного файла</t>
   </si>
   <si>
-    <t>Конфигурационный файл с листом "Параметры" (см. лист "Параметры")</t>
-  </si>
-  <si>
     <t>Ограничения</t>
   </si>
   <si>
@@ -113,51 +119,6 @@
     <t>Открывает диалоговое окно для выбора конфигурационного файла, выполняет загрузку параметров в переменные</t>
   </si>
   <si>
-    <t>Расширение входного файла</t>
-  </si>
-  <si>
-    <t>*.xlsx</t>
-  </si>
-  <si>
-    <t>Наименование листа</t>
-  </si>
-  <si>
-    <t>"Параметры"</t>
-  </si>
-  <si>
-    <t>Наличие заголовков</t>
-  </si>
-  <si>
-    <t>Обязательно</t>
-  </si>
-  <si>
-    <t>Обязательные параметры</t>
-  </si>
-  <si>
-    <t>ИНН компании</t>
-  </si>
-  <si>
-    <t>Опциональные параметры</t>
-  </si>
-  <si>
-    <t>Начало периода, окончание периода</t>
-  </si>
-  <si>
-    <t>Параметры, несущие исключительно смысловую нагрузку</t>
-  </si>
-  <si>
-    <t>Название компании</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>Начало периода</t>
-  </si>
-  <si>
-    <t>Окончание периода</t>
-  </si>
-  <si>
     <t>ПУБЛИЧНОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "НОВОЛИПЕЦКИЙ МЕТАЛЛУРГИЧЕСКИЙ КОМБИНАТ"</t>
   </si>
   <si>
@@ -165,33 +126,169 @@
   </si>
   <si>
     <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ РЕСПУБЛИКИ АДЫГЕЯ "АДЫГЕЙСКАЯ РЕСПУБЛИКАНСКАЯ КЛИНИЧЕСКАЯ ИНФЕКЦИОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t>Общие параметры</t>
+  </si>
+  <si>
+    <t>Полный путь к директории, куда требуется сохранить результат работы робота</t>
+  </si>
+  <si>
+    <t>Название компании (необяз.)</t>
+  </si>
+  <si>
+    <t>ИНН (обяз.)</t>
+  </si>
+  <si>
+    <t>Начало периода (необяз.)</t>
+  </si>
+  <si>
+    <t>Окончание периода (необяз.)</t>
+  </si>
+  <si>
+    <t>\\Mac\Home\Documents\UiPath</t>
+  </si>
+  <si>
+    <r>
+      <t>Конфигурационный файл с листом "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Параметры</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>". 
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Полный путь к директории</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">" - указывается полный путь к папке, куда будет созранен результирующий файл "Purchase requests result.xlsx".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Названиие компании</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>" - необязательное поле, служит для удобства пользователя. Указывается название компании, либо ячейка остается пустой.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ИНН</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>" - обязательное поле. Поиск на сайте осуществляется по ИНН.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Начало / окончание периода</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">" - необязательные поля, служат для указания </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">периода действия плана закупок. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заполняется дата в формате ДД.мм.ГГГГ или ячейка остается пустой.</t>
+    </r>
+  </si>
+  <si>
+    <t>файл с разметкой форматирования "resultFormat.xlsx" в папке с файлом конфигурации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -202,38 +299,97 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="8"/>
       <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <i val="1"/>
-      <u val="single"/>
+      <i/>
+      <u/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +420,19 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -335,32 +502,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="9"/>
       </left>
       <right style="thin">
@@ -398,7 +539,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
         <color indexed="9"/>
@@ -415,9 +556,7 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
+      <right/>
       <top style="thick">
         <color indexed="9"/>
       </top>
@@ -430,8 +569,10 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
-      <top style="thick">
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
         <color indexed="9"/>
       </top>
       <bottom style="thin">
@@ -441,36 +582,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="9"/>
       </left>
       <right/>
@@ -480,19 +591,6 @@
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -532,169 +630,351 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Акцент2" xfId="2" builtinId="33"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color indexed="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="12"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="9"/>
+        </left>
+        <right style="thin">
+          <color indexed="9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ffed7d31"/>
-      <rgbColor rgb="fff7caac"/>
-      <rgbColor rgb="fffbe4d5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFF7CAAC"/>
+      <rgbColor rgb="FFFBE4D5"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EB4E349-29C2-4A89-9D31-D9FDA4F896D8}" name="inputTable" displayName="inputTable" ref="A4:D7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A4:D7" xr:uid="{81EE6AC5-0827-4DB8-B0C6-DF2FB80C2F9B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1BE6798F-182E-45CF-AB95-108A27175389}" name="Название компании (необяз.)"/>
+    <tableColumn id="2" xr3:uid="{9519036D-C2A0-4115-B4A9-84B6A304AAED}" name="ИНН (обяз.)"/>
+    <tableColumn id="3" xr3:uid="{A919DF01-4BF8-4749-813B-A598EACEDBF0}" name="Начало периода (необяз.)"/>
+    <tableColumn id="4" xr3:uid="{D2D7C0EF-9ACC-48A2-9756-44F0D23D3276}" name="Окончание периода (необяз.)"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Тема Office">
       <a:dk1>
@@ -896,7 +1176,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -915,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1101,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1127,7 +1407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,7 +1433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,9 +1446,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1185,7 +1471,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1204,7 +1490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1594,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,7 +1698,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,9 +1737,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1467,7 +1759,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1486,7 +1778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1594,7 +1886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +1912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,7 +1938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1672,7 +1964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1698,7 +1990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1724,7 +2016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1737,182 +2029,201 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="33.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="256" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="75.75" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:6" ht="75.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="68.65" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:6" ht="68.650000000000006" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" ht="27.75" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="14.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s" s="9">
+    <row r="5" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.65" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
-    <row r="6" ht="21.4" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="7" spans="1:6" ht="160.15" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B7" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="38.75" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
-    <row r="7" ht="38.7" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="3">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="11.75" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+    <row r="11" spans="1:6" ht="11.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" ht="11.7" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" ht="11.7" customHeight="1">
-      <c r="A10" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s" s="13">
+    <row r="12" spans="1:6" ht="85.5" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" ht="85.5" customHeight="1">
-      <c r="A11" t="s" s="15">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="9">
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="15">
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s" s="16">
+      <c r="F12" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" t="s" s="17">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1920,162 +2231,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.1719" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.1719" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.3516" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.8516" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="18" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="18" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" customWidth="1"/>
+    <col min="4" max="4" width="27.796875" customWidth="1"/>
+    <col min="5" max="256" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1">
-      <c r="A1" t="s" s="19">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="81.75" customHeight="1" thickTop="1">
+      <c r="A5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="26">
+        <v>4823006703</v>
+      </c>
+      <c r="C5" s="29">
+        <v>43537</v>
+      </c>
+      <c r="D5" s="30">
+        <v>43655</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="36" customHeight="1">
+      <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="20">
+      <c r="B6" s="27">
+        <v>7736050003</v>
+      </c>
+      <c r="C6" s="31">
+        <v>43116</v>
+      </c>
+      <c r="D6" s="32">
+        <v>43486</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="140.35" customHeight="1">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B7" s="28">
+        <v>105020580</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="17"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="21">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+    <row r="8" spans="1:5" ht="16.05" customHeight="1">
+      <c r="E8" s="17"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="21">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+    <row r="9" spans="1:5" ht="16.05" customHeight="1">
+      <c r="E9" s="17"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="21">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="E10" s="17"/>
     </row>
-    <row r="5" ht="27" customHeight="1">
-      <c r="A5" t="s" s="21">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="22">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="E11" s="17"/>
     </row>
-    <row r="6" ht="39" customHeight="1">
-      <c r="A6" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s" s="22">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="25">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s" s="26">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s" s="26">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s" s="27">
-        <v>39</v>
-      </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="29">
-        <v>40</v>
-      </c>
-      <c r="B9" s="30">
-        <v>4823006703</v>
-      </c>
-      <c r="C9" s="31">
-        <v>43537</v>
-      </c>
-      <c r="D9" s="32">
-        <v>43655</v>
-      </c>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="33">
-        <v>41</v>
-      </c>
-      <c r="B10" s="34">
-        <v>7736050003</v>
-      </c>
-      <c r="C10" s="35">
-        <v>43116</v>
-      </c>
-      <c r="D10" s="36">
-        <v>43486</v>
-      </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="37">
-        <v>42</v>
-      </c>
-      <c r="B11" s="38">
-        <v>105020580</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="4"/>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Закупки-Спецификация.xlsx
+++ b/Закупки-Спецификация.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Purchases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871F431E-08C6-4028-B576-6071F791669F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A2B14-66D1-4DD6-B1A7-69A9054E58D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Окончание периода (необяз.)</t>
-  </si>
-  <si>
-    <t>\\Mac\Home\Documents\UiPath</t>
   </si>
   <si>
     <r>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>файл с разметкой форматирования "resultFormat.xlsx" в папке с файлом конфигурации</t>
+  </si>
+  <si>
+    <t>\\Mac\Home\Documents\UiPath\PWC-Purchases</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -525,19 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
@@ -615,19 +602,6 @@
         <color indexed="9"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -708,7 +682,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -750,10 +724,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -769,53 +741,53 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2050,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2115,8 +2087,8 @@
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="43" t="s">
-        <v>35</v>
+      <c r="B5" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2137,8 +2109,8 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>34</v>
+      <c r="B7" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2232,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2244,110 +2216,84 @@
     <col min="2" max="2" width="24.19921875" customWidth="1"/>
     <col min="3" max="3" width="24.46484375" customWidth="1"/>
     <col min="4" max="4" width="27.796875" customWidth="1"/>
-    <col min="5" max="256" width="8.86328125" customWidth="1"/>
+    <col min="5" max="255" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:4" ht="43.5" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>33</v>
+      <c r="B2" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" ht="81.75" customHeight="1" thickTop="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:4" ht="81.75" customHeight="1" thickTop="1">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>4823006703</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>43537</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>43655</v>
       </c>
-      <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:4" ht="36" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>7736050003</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>43116</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="30">
         <v>43486</v>
       </c>
-      <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" ht="140.35" customHeight="1">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:4" ht="140.35" customHeight="1">
+      <c r="A7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>105020580</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.05" customHeight="1">
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.05" customHeight="1">
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="3"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Закупки-Спецификация.xlsx
+++ b/Закупки-Спецификация.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Purchases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A2B14-66D1-4DD6-B1A7-69A9054E58D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D6A903-B581-4A35-94C9-55560CDC214F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Код робота</t>
   </si>
@@ -32,33 +32,6 @@
     <t>Описание робота</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Заходим на сайт ЕИС в сфере закупок ("</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>http://zakupki.gov.ru/epz/orderplan/extendedsearch/search.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>"), вводим ИНН проверяемой компании, вводим вводим период действия плана-графика, результаты поиска (ссылка на поисковый запрос с найденными заявками на закупки) сохраняем в выходном файле</t>
-    </r>
-  </si>
-  <si>
     <t>Как запустить робота?</t>
   </si>
   <si>
@@ -114,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve"> +</t>
-  </si>
-  <si>
-    <t>Открывает диалоговое окно для выбора конфигурационного файла, выполняет загрузку параметров в переменные</t>
   </si>
   <si>
     <t>ПУБЛИЧНОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "НОВОЛИПЕЦКИЙ МЕТАЛЛУРГИЧЕСКИЙ КОМБИНАТ"</t>
@@ -276,12 +246,102 @@
   <si>
     <t>\\Mac\Home\Documents\UiPath\PWC-Purchases</t>
   </si>
+  <si>
+    <t>"ГАЗПРОМ"</t>
+  </si>
+  <si>
+    <t>Используемые сайты</t>
+  </si>
+  <si>
+    <t>Заходим на сайт ЕИС в сфере закупок, вводим ИНН проверяемой компании, вводим вводим период действия плана-графика, результаты поиска (ссылка на поисковый запрос с найденными заявками на закупки) сохраняем в выходном файле</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/orderplan/extendedsearch/search.html</t>
+  </si>
+  <si>
+    <t>ASelectConfigFile</t>
+  </si>
+  <si>
+    <t>Выбрать конфигурационный файл</t>
+  </si>
+  <si>
+    <t>Выполняет загрузку параметров из конфигурационного файла в переменные</t>
+  </si>
+  <si>
+    <t>Открывает диалоговое окно для выбора конфигурационного файла</t>
+  </si>
+  <si>
+    <t>ACloseIEBrowserAndExcel</t>
+  </si>
+  <si>
+    <t>Закрыть Excel и Internet Explorer</t>
+  </si>
+  <si>
+    <t>Уничтожает процессы IE и Excel</t>
+  </si>
+  <si>
+    <t>STOpenBrowser</t>
+  </si>
+  <si>
+    <t>Выполнить работу с браузером</t>
+  </si>
+  <si>
+    <t>Получение с сайта информации по заявкам на закупки для компаний из конфигурационного файла</t>
+  </si>
+  <si>
+    <t>AProcessACompany</t>
+  </si>
+  <si>
+    <t>Обработать одну компанию</t>
+  </si>
+  <si>
+    <t>Браузер</t>
+  </si>
+  <si>
+    <t>Ввод данных компании в форму на сайте и извлечение информации поискового запроса</t>
+  </si>
+  <si>
+    <t>AEnterParameters</t>
+  </si>
+  <si>
+    <t>Ввести данные о компании</t>
+  </si>
+  <si>
+    <t>Ввод данных из конфигурационного файла в форму на сайте</t>
+  </si>
+  <si>
+    <t>TWaitCompanyName</t>
+  </si>
+  <si>
+    <t>Выбрать компанию из выпадающего списка</t>
+  </si>
+  <si>
+    <t>Ожидание выпадающего списка с именем компании по ИНН компании. Внимание: в случае задержки со стороны сайта страница будет обновляться до получения необходимого элемента.</t>
+  </si>
+  <si>
+    <t>AGetResults</t>
+  </si>
+  <si>
+    <t>Извлечь результаты поиска</t>
+  </si>
+  <si>
+    <t>Проверка наличия заявок на закупки компании и получение ссылки на поисковый запрос</t>
+  </si>
+  <si>
+    <t>STWriteFile</t>
+  </si>
+  <si>
+    <t>Записать полученные результаты</t>
+  </si>
+  <si>
+    <t>Запись данных поисковых запросов в результирующий excel файл</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -296,12 +356,6 @@
     <font>
       <sz val="8"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -388,6 +442,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -432,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -676,13 +744,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -694,7 +803,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,38 +816,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,7 +858,7 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,20 +870,82 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -933,15 +1091,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EB4E349-29C2-4A89-9D31-D9FDA4F896D8}" name="inputTable" displayName="inputTable" ref="A4:D7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A4:D7" xr:uid="{81EE6AC5-0827-4DB8-B0C6-DF2FB80C2F9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EB4E349-29C2-4A89-9D31-D9FDA4F896D8}" name="inputTable" displayName="inputTable" ref="A4:D27" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A4:D27" xr:uid="{81EE6AC5-0827-4DB8-B0C6-DF2FB80C2F9B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1BE6798F-182E-45CF-AB95-108A27175389}" name="Название компании (необяз.)"/>
     <tableColumn id="2" xr3:uid="{9519036D-C2A0-4115-B4A9-84B6A304AAED}" name="ИНН (обяз.)"/>
     <tableColumn id="3" xr3:uid="{A919DF01-4BF8-4749-813B-A598EACEDBF0}" name="Начало периода (необяз.)"/>
     <tableColumn id="4" xr3:uid="{D2D7C0EF-9ACC-48A2-9756-44F0D23D3276}" name="Окончание периода (необяз.)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2020,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2033,7 +2191,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.46484375" customWidth="1"/>
     <col min="5" max="5" width="17.19921875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="29.46484375" customWidth="1"/>
     <col min="7" max="256" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2049,153 +2207,374 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="75.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:6" ht="12" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="68.650000000000006" customHeight="1">
+    <row r="3" spans="1:6" ht="75.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
+    <row r="4" spans="1:6" ht="75.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="39" t="s">
-        <v>34</v>
-      </c>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
+    <row r="6" spans="1:6" ht="68.650000000000006" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="160.15" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>33</v>
-      </c>
+    <row r="7" spans="1:6" ht="13.9" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="38.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
+    <row r="8" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="11.75" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="9" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.65" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="11.65" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="160.15" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.15" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="47.65" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="11.75" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="11.75" customHeight="1">
+      <c r="A17" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="11.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C17" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="10" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="39.4" customHeight="1">
+      <c r="A18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A19" s="46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="85.5" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="B19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C19" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D19" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="F19" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="F20" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="62.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="46.5" customHeight="1">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="108" customHeight="1">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="E27" s="58"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="E29" s="58"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="E30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2204,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2220,80 +2599,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="43.5" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>35</v>
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="81.75" customHeight="1" thickTop="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="19">
+        <v>4823006703</v>
+      </c>
+      <c r="C5" s="22">
+        <v>43537</v>
+      </c>
+      <c r="D5" s="23">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="20">
+        <v>7736050003</v>
+      </c>
+      <c r="C6" s="24">
+        <v>43116</v>
+      </c>
+      <c r="D6" s="25">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="140.35" customHeight="1">
+      <c r="A7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="24">
-        <v>4823006703</v>
-      </c>
-      <c r="C5" s="27">
-        <v>43537</v>
-      </c>
-      <c r="D5" s="28">
-        <v>43655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="B7" s="21">
+        <v>105020580</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="37">
         <v>7736050003</v>
       </c>
-      <c r="C6" s="29">
-        <v>43116</v>
-      </c>
-      <c r="D6" s="30">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="140.35" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="26">
-        <v>105020580</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A16" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A21" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A22" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A24" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="37">
+        <v>7736050003</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
